--- a/data/si_coords.xlsx
+++ b/data/si_coords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tycoleman/Documents/git/tsc/rotenone_small_impoundments_immediate/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4EB405-C005-5E4E-B2A8-224481E73419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49A49FD-E0A4-0648-A38D-5F2CAD6FEDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{F7821107-CFC5-8846-AC40-BB3C027E2866}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -750,10 +750,10 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>32.680481999999998</v>
+        <v>32.600146000000002</v>
       </c>
       <c r="D20">
-        <v>-85.511360999999994</v>
+        <v>-85.505061999999995</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
